--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-updatedocumentmetadata-audit-source.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-updatedocumentmetadata-audit-source.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-updatedocumentmetadata-audit-source.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-updatedocumentmetadata-audit-source.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -509,7 +509,7 @@
     <t>Type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -542,7 +542,7 @@
     <t>Sub-type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -849,7 +849,7 @@
     <t>The Participation type of the agent to the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -888,7 +888,7 @@
     <t>What security role enabled the agent to participate in the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>.role</t>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole|Practitioner|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(PractitionerRole|4.0.1|Practitioner|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -999,7 +999,7 @@
     <t>AuditEvent.agent.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
     <t>Used when the event is about exporting/importing onto media.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype</t>
+    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype|4.0.1</t>
   </si>
   <si>
     <t>.player.description.mediaType</t>
@@ -1553,7 +1553,7 @@
     <t>Code specifying the type of system that detected and recorded the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-source-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-source-type|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1618,7 +1618,7 @@
     <t>AuditEvent.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1652,7 +1652,7 @@
     <t>Code for the entity type involved in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-entity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-entity-type|4.0.1</t>
   </si>
   <si>
     <t>[self::Act].code or role.player.code</t>
@@ -1682,7 +1682,7 @@
     <t>Code representing the role the entity played in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-role</t>
+    <t>http://hl7.org/fhir/ValueSet/object-role|4.0.1</t>
   </si>
   <si>
     <t>role.code (not sure what this would mean for an Act)</t>
@@ -1712,7 +1712,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|5.2.0</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|4.0.1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -1742,7 +1742,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -1968,7 +1968,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2065,7 +2065,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -2146,7 +2146,7 @@
     <t>AuditEvent.entity.what.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2797,7 +2797,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4876,7 +4876,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>212</v>
       </c>
@@ -30758,12 +30758,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP232">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
